--- a/dataset/ТОП-20 вакансии, специализации, навыки.xlsx
+++ b/dataset/ТОП-20 вакансии, специализации, навыки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\проект_стажировкa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577134B-DD8B-429D-A347-FFDDF2593F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6382EE-13AE-4C7C-A8C1-F0A286B3848A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="17340" xr2:uid="{838F8EA9-F590-4A99-AC08-55BF8289FC25}"/>
+    <workbookView xWindow="1485" yWindow="0" windowWidth="27315" windowHeight="17220" xr2:uid="{838F8EA9-F590-4A99-AC08-55BF8289FC25}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/dataset/ТОП-20 вакансии, специализации, навыки.xlsx
+++ b/dataset/ТОП-20 вакансии, специализации, навыки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\проект_стажировкa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6382EE-13AE-4C7C-A8C1-F0A286B3848A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F30154D-3D80-484E-A12F-2851FB32CE4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="0" windowWidth="27315" windowHeight="17220" xr2:uid="{838F8EA9-F590-4A99-AC08-55BF8289FC25}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
